--- a/elenco_sigarette.xlsx
+++ b/elenco_sigarette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E373"/>
+  <dimension ref="A1:E378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1868,12 +1868,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2660</t>
+          <t>2922</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CORSET MAUVE</t>
+          <t>CHIARAVALLE VIRGINIA BRIGHT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1895,12 +1895,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2661</t>
+          <t>2679</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CORSET MARINE</t>
+          <t>CHIARAVALLE VIRGINIA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2659</t>
+          <t>2660</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CORSET PINK</t>
+          <t>CORSET MAUVE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1949,12 +1949,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20112</t>
+          <t>2661</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CORSET WHITE</t>
+          <t>CORSET MARINE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1976,39 +1976,39 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3602</t>
+          <t>2659</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CUBERO 10 WHITE FILTER</t>
+          <t>CORSET PINK</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>da 10 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>160,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>20112</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DAVIDOFF CLASSIC</t>
+          <t>CORSET WHITE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2018,51 +2018,51 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>300,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DAVIDOFF GOLD</t>
+          <t>CUBERO 10 WHITE FILTER</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 10 pezzi</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>300,00</t>
+          <t>160,00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>728</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DAVIDOFF GOLD SL LINE</t>
+          <t>DAVIDOFF CLASSIC</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2084,12 +2084,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DIANA BLU KS</t>
+          <t>DAVIDOFF GOLD</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2099,24 +2099,24 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>300,00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>6,00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DIANA BLU 100's</t>
+          <t>DAVIDOFF GOLD SL LINE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2126,24 +2126,24 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>300,00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>6,00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DIANA SSL BLU</t>
+          <t>DIANA BLU KS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2165,17 +2165,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DIANA BLU KS</t>
+          <t>DIANA BLU 100's</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>cartoccio da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2192,12 +2192,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>913</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DIANA ROSSA KS</t>
+          <t>DIANA SSL BLU</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2219,17 +2219,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DIANA ROSSA 100's</t>
+          <t>DIANA BLU KS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>cartoccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2246,7 +2246,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>cartoccio da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2273,12 +2273,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DUNHILL BLUE</t>
+          <t>DIANA ROSSA 100's</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2288,51 +2288,51 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>310,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>6,20</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DUNHILL GOLD</t>
+          <t>DIANA ROSSA KS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>cartoccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>310,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>6,20</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>818</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DUNHILL RED</t>
+          <t>DUNHILL BLUE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2354,12 +2354,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1480</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ELIXYR RED</t>
+          <t>DUNHILL GOLD</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2369,24 +2369,24 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>310,00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>6,20</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1719</t>
+          <t>798</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ELIXYR+</t>
+          <t>DUNHILL RED</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2396,24 +2396,24 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>310,00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>6,20</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3188</t>
+          <t>1480</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ELIXYR+ 100s</t>
+          <t>ELIXYR RED</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2423,78 +2423,78 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>240,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4,80</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20064</t>
+          <t>1719</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FIIT MARINE</t>
+          <t>ELIXYR+</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>225,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4,50</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20065</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FIIT REGULAR</t>
+          <t>ELIXYR+ 100s</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>225,00</t>
+          <t>240,00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4,50</t>
+          <t>4,80</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20202</t>
+          <t>20064</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FIIT REGULAR DEEP</t>
+          <t>FIIT MARINE</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2516,12 +2516,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20203</t>
+          <t>20065</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FIIT REGULAR SKY</t>
+          <t>FIIT REGULAR</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2543,12 +2543,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20204</t>
+          <t>20202</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FIIT ROXO</t>
+          <t>FIIT REGULAR DEEP</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2570,66 +2570,66 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>20203</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FUTURA CLASSICA</t>
+          <t>FIIT REGULAR SKY</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 20 pezzi</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>225,00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>4,50</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>20204</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GAULOISES BLONDES BLU</t>
+          <t>FIIT ROXO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 20 pezzi</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>275,00</t>
+          <t>225,00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>5,50</t>
+          <t>4,50</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>604</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GAULOISES BLONDES ROSSA</t>
+          <t>FUTURA CLASSICA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2639,24 +2639,24 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>275,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>5,50</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2217</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GLAMOUR BLUES</t>
+          <t>GAULOISES BLONDES BLU</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2666,24 +2666,24 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>285,00</t>
+          <t>275,00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>5,70</t>
+          <t>5,50</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2216</t>
+          <t>640</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GLAMOUR PINKS</t>
+          <t>GAULOISES BLONDES ROSSA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2693,132 +2693,132 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>285,00</t>
+          <t>275,00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>5,70</t>
+          <t>5,50</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1538</t>
+          <t>2217</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GOLDEN BLEND'S VIRGINIA</t>
+          <t>GLAMOUR BLUES</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>da 40 grammi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>237,50</t>
+          <t>285,00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>9,50</t>
+          <t>5,70</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3432</t>
+          <t>2216</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GOLDEN BLEND'S VIRGINIA GT 30</t>
+          <t>GLAMOUR PINKS</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>da 30 grammi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>240,00</t>
+          <t>285,00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>7,20</t>
+          <t>5,70</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3487</t>
+          <t>1538</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GOLDEN VIRGINIA THE ORIGINAL GOLD</t>
+          <t>GOLDEN BLEND'S VIRGINIA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>da 30 grammi</t>
+          <t>da 40 grammi</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>233,33</t>
+          <t>237,50</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>9,50</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1915</t>
+          <t>3432</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GOLDEN VIRGINIA THE ORIGINAL GOLD 40G</t>
+          <t>GOLDEN BLEND'S VIRGINIA GT 30</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>da 40 grammi</t>
+          <t>da 30 grammi</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>232,50</t>
+          <t>240,00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>9,30</t>
+          <t>7,20</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3486</t>
+          <t>3487</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GOLDEN VIRGINIA THE ORIGINAL</t>
+          <t>GOLDEN VIRGINIA THE ORIGINAL GOLD</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2840,12 +2840,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>1915</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GOLDEN VIRGINIA THE ORIGINAL 40G</t>
+          <t>GOLDEN VIRGINIA THE ORIGINAL GOLD 40G</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2867,93 +2867,93 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2519</t>
+          <t>3486</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>HANDELSGOLD BLOND</t>
+          <t>GOLDEN VIRGINIA THE ORIGINAL</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>da 5 pezzi</t>
+          <t>da 30 grammi</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>120,00</t>
+          <t>233,33</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1,50</t>
+          <t>7,00</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3500</t>
+          <t>801</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>HEETS AMBER SELECTION</t>
+          <t>GOLDEN VIRGINIA THE ORIGINAL 40G</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>da 20 pezzi</t>
+          <t>da 40 grammi</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>232,50</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>9,30</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3921</t>
+          <t>2519</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HEETS DIMENSIONS AMMIL</t>
+          <t>HANDELSGOLD BLOND</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>da 20 pezzi</t>
+          <t>da 5 pezzi</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>120,00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>1,50</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3920</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HEETS DIMENSIONS APRICITY</t>
+          <t>HEETS AMBER SELECTION</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2975,12 +2975,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3653</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>HEETS BLUE SELECTION</t>
+          <t>HEETS DIMENSIONS AMMIL</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3002,12 +3002,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3707</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>HEETS BRONZE SELECTION</t>
+          <t>HEETS DIMENSIONS APRICITY</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3029,12 +3029,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20076</t>
+          <t>3653</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>HEETS SELECTION MAUVE WAVE</t>
+          <t>HEETS BLUE SELECTION</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3056,12 +3056,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3922</t>
+          <t>3707</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>HEETS DIMENSIONS NOOR</t>
+          <t>HEETS BRONZE SELECTION</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3083,12 +3083,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>20076</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>HEETS SELECTION RUSSET</t>
+          <t>HEETS SELECTION MAUVE WAVE</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3110,12 +3110,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3731</t>
+          <t>3922</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>HEETS SIENNA SELECTION</t>
+          <t>HEETS DIMENSIONS NOOR</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3137,12 +3137,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>3880</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>HEETS SIENNA CAPS</t>
+          <t>HEETS SELECTION RUSSET</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3164,12 +3164,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>3970</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>HEETS SELECTION SILVER</t>
+          <t>HEETS SIENNA SELECTION</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3191,12 +3191,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3816</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>HEETS TEAK SELECTION</t>
+          <t>HEETS SIENNA CAPS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3218,12 +3218,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3501</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>HEETS TURQUOISE SELECTION</t>
+          <t>HEETS SELECTION SILVER</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3245,12 +3245,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>HEETS YELLOW SELECTION</t>
+          <t>HEETS TEAK SELECTION</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3272,12 +3272,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20206</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ID BALANCED BLUE TOBACCO</t>
+          <t>HEETS TURQUOISE SELECTION</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3287,24 +3287,24 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>175,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3,50</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20424</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ID BRIGHT YELLOW TOBACCO</t>
+          <t>HEETS YELLOW SELECTION</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3314,24 +3314,24 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>175,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3,50</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20651</t>
+          <t>20206</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ID CAPSULE COSMIC BLAST</t>
+          <t>ID BALANCED BLUE TOBACCO</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3353,12 +3353,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20379</t>
+          <t>20424</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ID CAPSULE FOREST PURPLE</t>
+          <t>ID BRIGHT YELLOW TOBACCO</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3380,12 +3380,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20208</t>
+          <t>20651</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ID CAPSULE POLAR GREEN</t>
+          <t>ID CAPSULE COSMIC BLAST</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3407,12 +3407,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20411</t>
+          <t>20379</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ID CAPSULE SUMMER RED</t>
+          <t>ID CAPSULE FOREST PURPLE</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3434,12 +3434,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20207</t>
+          <t>20208</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ID ICE TEAL</t>
+          <t>ID CAPSULE POLAR GREEN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3461,12 +3461,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20650</t>
+          <t>20411</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ID POLAR CAPSULE YELLOW</t>
+          <t>ID CAPSULE SUMMER RED</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3488,12 +3488,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20205</t>
+          <t>20207</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ID RICH BRONZE TOBACCO</t>
+          <t>ID ICE TEAL</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3515,12 +3515,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20425</t>
+          <t>20650</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ID VELVET COPPER TOBACCO</t>
+          <t>ID POLAR CAPSULE YELLOW</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3542,12 +3542,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20426</t>
+          <t>20205</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ID WARM AMBER TOBACCO</t>
+          <t>ID RICH BRONZE TOBACCO</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3569,93 +3569,93 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2286</t>
+          <t>20425</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>JPS BLUE STREAM</t>
+          <t>ID VELVET COPPER TOBACCO</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 20 pezzi</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>175,00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>3,50</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2288</t>
+          <t>20426</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>JPS BLUE STREAM 100</t>
+          <t>ID WARM AMBER TOBACCO</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 20 pezzi</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>175,00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>3,50</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2956</t>
+          <t>2286</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>JPS BLUE</t>
+          <t>JPS BLUE STREAM</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>cartoccio da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>245,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>4,90</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>2288</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>JPS ORIGINAL</t>
+          <t>JPS BLUE STREAM 100</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3677,39 +3677,39 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>2956</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>JPS RED</t>
+          <t>JPS BLUE</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>cartoccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>245,00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>4,90</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2287</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>JPS RED 100</t>
+          <t>JPS ORIGINAL</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3731,7 +3731,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2957</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3741,29 +3741,29 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>cartoccio da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>245,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4,90</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>2287</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>JPS SILVER</t>
+          <t>JPS RED 100</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3785,39 +3785,39 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>2957</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>JPS SILVER 100</t>
+          <t>JPS RED</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>cartoccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>245,00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>4,90</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3006</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>JPS SSL-LINE SILVER</t>
+          <t>JPS SILVER</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3839,12 +3839,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>3941</t>
+          <t>2883</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>JPS WHITE</t>
+          <t>JPS SILVER 100</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3866,12 +3866,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3007</t>
+          <t>3006</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>JPS SSL-LINE WHITE</t>
+          <t>JPS SSL-LINE SILVER</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3893,12 +3893,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>3183</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>THE KING BLUE</t>
+          <t>JPS WHITE</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3908,24 +3908,24 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>240,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>4,80</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>3176</t>
+          <t>3007</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>THE KING BLUE 100'S</t>
+          <t>JPS SSL-LINE WHITE</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3935,24 +3935,24 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>245,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>4,90</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>3184</t>
+          <t>3183</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>THE KING RED</t>
+          <t>THE KING BLUE</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3974,12 +3974,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3178</t>
+          <t>3176</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>THE KING RED 100'S</t>
+          <t>THE KING BLUE 100'S</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4001,12 +4001,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>3534</t>
+          <t>3184</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>THE KING SILVER</t>
+          <t>THE KING RED</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4028,12 +4028,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>3178</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>LIDO BLU</t>
+          <t>THE KING RED 100'S</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4043,24 +4043,24 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>285,00</t>
+          <t>245,00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>5,70</t>
+          <t>4,90</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>3534</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>LINDA BLU</t>
+          <t>THE KING SILVER</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4070,24 +4070,24 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>240,00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>4,80</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>87</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>L&amp;M BLUE LABEL KS</t>
+          <t>LIDO BLU</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4097,24 +4097,24 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>285,00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>5,70</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>841</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>L&amp;M RED LABEL KS</t>
+          <t>LINDA BLU</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4136,12 +4136,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>LUCKY STRIKE AMBER</t>
+          <t>L&amp;M BLUE LABEL KS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4151,51 +4151,51 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3648</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>LUCKY STRIKE CRISP TOBACCO LEAF ROLLED</t>
+          <t>L&amp;M RED LABEL KS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>da 10 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>100,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2,50</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>3947</t>
+          <t>867</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>LUCKY STRIKE ECLIPSE</t>
+          <t>LUCKY STRIKE AMBER</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4217,39 +4217,39 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>3648</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>LUCKY STRIKE ORIGINAL</t>
+          <t>LUCKY STRIKE CRISP TOBACCO LEAF ROLLED</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 10 pezzi</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>100,00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>2,50</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20403</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>LUCKY STRIKE ORIGINAL 100'S</t>
+          <t>LUCKY STRIKE ECLIPSE</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4271,12 +4271,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>LUCKY STRIKE DEMI</t>
+          <t>LUCKY STRIKE ORIGINAL</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4298,17 +4298,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>20403</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>LUCKY STRIKE ORIGINAL</t>
+          <t>LUCKY STRIKE ORIGINAL 100'S</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>cartoccio da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4325,12 +4325,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>3319</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>LUCKY STRIKE SILVER BAY</t>
+          <t>LUCKY STRIKE DEMI</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4352,17 +4352,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>3365</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MADEMOISELLE LA BLEUE</t>
+          <t>LUCKY STRIKE ORIGINAL</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>cartoccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4379,12 +4379,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>3364</t>
+          <t>3319</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MADEMOISELLE LA ROSE</t>
+          <t>LUCKY STRIKE SILVER BAY</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4406,39 +4406,39 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1734</t>
+          <t>3365</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MAKLA IFRIKIA</t>
+          <t>MADEMOISELLE LA BLEUE</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>da 200 grammi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>135,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>27,00</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>3341</t>
+          <t>3364</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MARLBORO BLUE LINE</t>
+          <t>MADEMOISELLE LA ROSE</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4448,132 +4448,132 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>300,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>1734</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MARLBORO LEAF</t>
+          <t>MAKLA IFRIKIA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>da 10 pezzi</t>
+          <t>da 200 grammi</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>108,00</t>
+          <t>135,00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2,70</t>
+          <t>27,00</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>3341</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MARLBORO LEAF BEYOND</t>
+          <t>MARLBORO BLUE LINE</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>da 10 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>108,00</t>
+          <t>300,00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2,70</t>
+          <t>6,00</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MARLBORO GOLD KS</t>
+          <t>MARLBORO LEAF</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 10 pezzi</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>300,00</t>
+          <t>108,00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,70</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MARLBORO GOLD 100S</t>
+          <t>MARLBORO LEAF BEYOND</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 10 pezzi</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>300,00</t>
+          <t>108,00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,70</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>3906</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MARLBORO CRAFTED GOLD</t>
+          <t>MARLBORO GOLD KS</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4583,24 +4583,24 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>300,00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>6,00</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2658</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MARLBORO GOLD POCKET PACK</t>
+          <t>MARLBORO GOLD 100S</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4610,24 +4610,24 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>300,00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>6,00</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>3340</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MARLBORO GOLD LINE</t>
+          <t>MARLBORO CRAFTED GOLD</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4637,51 +4637,51 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>300,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>2658</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MARLBORO GOLD KS</t>
+          <t>MARLBORO GOLD POCKET PACK</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>cartoccio da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>285,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>5,70</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>3340</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MARLBORO KS</t>
+          <t>MARLBORO GOLD LINE</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4703,39 +4703,39 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MARLBORO 100S</t>
+          <t>MARLBORO GOLD KS</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>cartoccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>300,00</t>
+          <t>285,00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>5,70</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>3907</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MARLBORO CRAFTED RED</t>
+          <t>MARLBORO KS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4745,24 +4745,24 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>300,00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>6,00</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>819</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MARLBORO MIX</t>
+          <t>MARLBORO 100S</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4772,132 +4772,132 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>290,00</t>
+          <t>300,00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>5,80</t>
+          <t>6,00</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>3504</t>
+          <t>3907</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MARLBORO POCKET PACK</t>
+          <t>MARLBORO CRAFTED RED</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>cartoccio da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MARLBORO KS</t>
+          <t>MARLBORO MIX</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>cartoccio da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>285,00</t>
+          <t>290,00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>5,70</t>
+          <t>5,80</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2616</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MARLBORO SILVER BLUE KS</t>
+          <t>MARLBORO POCKET PACK</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>cartoccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>300,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>3422</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MARLBORO TOUCH</t>
+          <t>MARLBORO KS</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>cartoccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>290,00</t>
+          <t>285,00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>5,80</t>
+          <t>5,70</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2214</t>
+          <t>2616</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MARLBORO GOLD TOUCH KS</t>
+          <t>MARLBORO SILVER BLUE KS</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4907,24 +4907,24 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>290,00</t>
+          <t>300,00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>5,80</t>
+          <t>6,00</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2373</t>
+          <t>3422</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MARLBORO RED TOUCH</t>
+          <t>MARLBORO TOUCH</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4946,12 +4946,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2688</t>
+          <t>2214</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MARLBORO WHITE</t>
+          <t>MARLBORO GOLD TOUCH KS</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4961,24 +4961,24 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>300,00</t>
+          <t>290,00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>5,80</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2423</t>
+          <t>2373</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MERIT BAY KS</t>
+          <t>MARLBORO RED TOUCH</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4988,24 +4988,24 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>290,00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>5,80</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>2688</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MERIT BIANCA KS</t>
+          <t>MARLBORO WHITE</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5015,24 +5015,24 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>285,00</t>
+          <t>300,00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>5,70</t>
+          <t>6,00</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>874</t>
+          <t>2423</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MERIT BLU KS</t>
+          <t>MERIT BAY KS</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5042,24 +5042,24 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>285,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>5,70</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>997</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MERIT GIALLA KS</t>
+          <t>MERIT BIANCA KS</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5081,12 +5081,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>949</t>
+          <t>874</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MERIT GIALLA 100'S</t>
+          <t>MERIT BLU KS</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5108,12 +5108,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>997</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MERIT SSL</t>
+          <t>MERIT GIALLA KS</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5135,17 +5135,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>949</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MERIT GIALLA</t>
+          <t>MERIT GIALLA 100'S</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>cartoccio da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5162,228 +5162,228 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>3850</t>
+          <t>81</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TOSCANO CLASSICO 5 MEZZI SIGARI</t>
+          <t>MERIT SSL</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>da 5 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>168,00</t>
+          <t>285,00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>4,20</t>
+          <t>5,70</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MOODS FILTER</t>
+          <t>MERIT GIALLA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>da 20 pezzi</t>
+          <t>cartoccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>160,00</t>
+          <t>285,00</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>5,70</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>3850</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MOODS GOLD FILTER 20</t>
+          <t>TOSCANO CLASSICO 5 MEZZI SIGARI</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>da 20 pezzi</t>
+          <t>da 5 pezzi</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>160,00</t>
+          <t>168,00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,20</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>3657</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MOODS LONG FILTER 10</t>
+          <t>MOODS FILTER</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>da 10 pezzi</t>
+          <t>da 20 pezzi</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>172,00</t>
+          <t>160,00</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>4,30</t>
+          <t>8,00</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2102</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MINI MOODS DOUBLE FILTER 10</t>
+          <t>MOODS GOLD FILTER 20</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>da 10 pezzi</t>
+          <t>da 20 pezzi</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>164,00</t>
+          <t>160,00</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>4,10</t>
+          <t>8,00</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>3477</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MINI MOODS DOUBLE FILTER 20</t>
+          <t>MOODS LONG FILTER 10</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>da 20 pezzi</t>
+          <t>da 10 pezzi</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>160,00</t>
+          <t>172,00</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,30</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>2102</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MOODS</t>
+          <t>MINI MOODS DOUBLE FILTER 10</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>da 20 pezzi</t>
+          <t>da 10 pezzi</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>158,00</t>
+          <t>164,00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>7,90</t>
+          <t>4,10</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>3904</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MOODS SUNSHINE FILTER 10</t>
+          <t>MINI MOODS DOUBLE FILTER 20</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>da 10 pezzi</t>
+          <t>da 20 pezzi</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>168,00</t>
+          <t>160,00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>4,20</t>
+          <t>8,00</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>3905</t>
+          <t>881</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MOODS SUNSHINE FILTER 20</t>
+          <t>MOODS</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5393,105 +5393,105 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>160,00</t>
+          <t>158,00</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>7,90</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>3173</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MOODS SUNSHINE FILTER 3</t>
+          <t>MOODS SUNSHINE FILTER 10</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>da 3 pezzi</t>
+          <t>da 10 pezzi</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>173,34</t>
+          <t>168,00</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>1,30</t>
+          <t>4,20</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MS BIANCHE</t>
+          <t>MOODS SUNSHINE FILTER 20</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 20 pezzi</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>270,00</t>
+          <t>160,00</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>5,40</t>
+          <t>8,00</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>3173</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MS CHIARE</t>
+          <t>MOODS SUNSHINE FILTER 3</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 3 pezzi</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>270,00</t>
+          <t>173,34</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>5,40</t>
+          <t>1,30</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>857</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MS CHIARE 100'S</t>
+          <t>MS BIANCHE</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5513,12 +5513,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>851</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MS CLUB BIANCA</t>
+          <t>MS CHIARE</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5528,24 +5528,24 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>270,00</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>5,40</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>827</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MS CLUB</t>
+          <t>MS CHIARE 100'S</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5555,24 +5555,24 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>270,00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>5,40</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MS BIONDE</t>
+          <t>MS CLUB BIANCA</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5582,24 +5582,24 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>270,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>5,40</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MS BIONDE 100'S</t>
+          <t>MS CLUB</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5609,19 +5609,19 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>270,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>5,40</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -5631,83 +5631,83 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>cartoccio da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>270,00</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>5,40</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MS NAZIONALI</t>
+          <t>MS BIONDE 100'S</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>cartoccio da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>270,00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>5,40</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>993</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MS ROSSE</t>
+          <t>MS BIONDE</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>cartoccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>270,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>5,40</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MS ROSSE</t>
+          <t>MS NAZIONALI</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5729,93 +5729,93 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>3530</t>
+          <t>993</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MS I SIGARETTI</t>
+          <t>MS ROSSE</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>da 10 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>108,00</t>
+          <t>270,00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>2,70</t>
+          <t>5,40</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>852</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MURATTI AMBASSADOR AZURE KS</t>
+          <t>MS ROSSE</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>cartoccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>310,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>6,20</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>951</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>MURATTI AZURE 100S</t>
+          <t>MS I SIGARETTI</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 10 pezzi</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>310,00</t>
+          <t>108,00</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>6,20</t>
+          <t>2,70</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MURATTI AMBASSADOR BLUE KS</t>
+          <t>MURATTI AMBASSADOR AZURE KS</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5837,12 +5837,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>951</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>MURATTI AMBASSADOR SILVER KS</t>
+          <t>MURATTI AZURE 100S</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5864,12 +5864,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>MURATTI RED 100S</t>
+          <t>MURATTI AMBASSADOR BLUE KS</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5891,66 +5891,66 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>3867</t>
+          <t>876</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NEO STICKS ARCTIC CLICK</t>
+          <t>MURATTI AMBASSADOR SILVER KS</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>190,00</t>
+          <t>310,00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>3,80</t>
+          <t>6,20</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>3950</t>
+          <t>952</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NEO STICKS ARCTIC BLUE MIX</t>
+          <t>MURATTI RED 100S</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>190,00</t>
+          <t>310,00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>3,80</t>
+          <t>6,20</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>3868</t>
+          <t>3867</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>NEO STICKS BERYL CLICK</t>
+          <t>NEO STICKS ARCTIC CLICK</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5972,12 +5972,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>3871</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NEO STICKS CLASSIC TOBACCO</t>
+          <t>NEO STICKS ARCTIC BLUE MIX</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5999,12 +5999,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>3956</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NEO STICKS GOLDEN TOBACCO</t>
+          <t>NEO STICKS BERYL CLICK</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -6026,12 +6026,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20113</t>
+          <t>3871</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NEO STICKS MORNING CLICK</t>
+          <t>NEO STICKS CLASSIC TOBACCO</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -6053,12 +6053,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20210</t>
+          <t>3956</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>NEO STICKS RICH TOBACCO</t>
+          <t>NEO STICKS GOLDEN TOBACCO</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6080,12 +6080,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>3869</t>
+          <t>20113</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NEO STICKS SCARLET CLICK</t>
+          <t>NEO STICKS MORNING CLICK</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -6107,12 +6107,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>3949</t>
+          <t>20210</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NEO STICKS SCARLET GREEN MIX</t>
+          <t>NEO STICKS RICH TOBACCO</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6134,12 +6134,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20209</t>
+          <t>3869</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>NEO STICKS SMOOTH TOBACCO</t>
+          <t>NEO STICKS SCARLET CLICK</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -6161,17 +6161,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20114</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NEO STICKS TWILIGHT CLICK</t>
+          <t>NEO STICKS SCARLET GREEN MIX</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>da 20pezzi</t>
+          <t>da 20 pezzi</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6188,12 +6188,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>3872</t>
+          <t>20209</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NEO STICKS TERRACOTTA TOBACCO</t>
+          <t>NEO STICKS SMOOTH TOBACCO</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -6215,17 +6215,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>20114</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NEO STICKS TROPIC CLICK</t>
+          <t>NEO STICKS TWILIGHT CLICK</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>da 20 pezzi</t>
+          <t>da 20pezzi</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6242,12 +6242,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20468</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>LUCKY STRIKE STICKS BALANCED TOBACCO</t>
+          <t>NEO STICKS TERRACOTTA TOBACCO</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -6257,24 +6257,24 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>175,00</t>
+          <t>190,00</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>3,50</t>
+          <t>3,80</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20469</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>LUCKY STRIKE STICKS GOLD TOBACCO</t>
+          <t>NEO STICKS TROPIC CLICK</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -6284,24 +6284,24 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>175,00</t>
+          <t>190,00</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>3,50</t>
+          <t>3,80</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20687</t>
+          <t>20468</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>LUCKY STRIKE STICKS RICH TOBACCO</t>
+          <t>LUCKY STRIKE STICKS BALANCED TOBACCO</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -6323,12 +6323,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20688</t>
+          <t>20469</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>LUCKY STRIKE STICKS TWIST</t>
+          <t>LUCKY STRIKE STICKS GOLD TOBACCO</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -6350,125 +6350,125 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>3622</t>
+          <t>20687</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>#NO NAME AUTHENTIC</t>
+          <t>LUCKY STRIKE STICKS RICH TOBACCO</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>da 30 grammi</t>
+          <t>da 20 pezzi</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>230,00</t>
+          <t>175,00</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>6,90</t>
+          <t>3,50</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>20688</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>OZONA PRESIDENT SNUFF</t>
+          <t>LUCKY STRIKE STICKS TWIST</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>da 5 grammi</t>
+          <t>da 20 pezzi</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>440,00</t>
+          <t>175,00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>2,20</t>
+          <t>3,50</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1277</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PANTER DESERT 20</t>
+          <t>#NO NAME AUTHENTIC</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>da 20 pezzi</t>
+          <t>da 30 grammi</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>136,00</t>
+          <t>230,00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>6,80</t>
+          <t>6,90</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1841</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>PANTER FILTER DESERT 20</t>
+          <t>OZONA PRESIDENT SNUFF</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>da 20 pezzi</t>
+          <t>da 5 grammi</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>136,00</t>
+          <t>440,00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>6,80</t>
+          <t>2,20</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>3940</t>
+          <t>1277</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PANTER FILTER G.</t>
+          <t>PANTER DESERT 20</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>da 10 pezzi</t>
+          <t>da 20 pezzi</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6478,46 +6478,46 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>3,40</t>
+          <t>6,80</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20141</t>
+          <t>1841</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>PANTER POCKET FILTER SWIRL BRONZE</t>
+          <t>PANTER FILTER DESERT 20</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>da 10 pezzi</t>
+          <t>da 20 pezzi</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>112,00</t>
+          <t>136,00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>2,80</t>
+          <t>6,80</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20140</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>PANTER POCKET FILTER SWIRL RED</t>
+          <t>PANTER FILTER G.</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6527,105 +6527,105 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>112,00</t>
+          <t>136,00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>2,80</t>
+          <t>3,40</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>3225</t>
+          <t>20141</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>PANTER FILTER RED 14</t>
+          <t>PANTER POCKET FILTER SWIRL BRONZE</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>da 14 pezzi</t>
+          <t>da 10 pezzi</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>140,00</t>
+          <t>112,00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>4,90</t>
+          <t>2,80</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>20140</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>PEDRONI CLASSICO</t>
+          <t>PANTER POCKET FILTER SWIRL RED</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>da 5 pezzi</t>
+          <t>da 10 pezzi</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>160,00</t>
+          <t>112,00</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,80</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>3225</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>PEDRONI MEDITERRANEO</t>
+          <t>PANTER FILTER RED 14</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>da 5 pezzi</t>
+          <t>da 14 pezzi</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>180,00</t>
+          <t>140,00</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>4,50</t>
+          <t>4,90</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PEDRONI MEDITERRANEO</t>
+          <t>PEDRONI CLASSICO</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -6635,24 +6635,24 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>180,00</t>
+          <t>160,00</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>4,50</t>
+          <t>4,00</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2583</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PEDRONI MIX 01 PUERTO RICO 5 SIGARI</t>
+          <t>PEDRONI MEDITERRANEO</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -6662,78 +6662,78 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>132,00</t>
+          <t>180,00</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>3,30</t>
+          <t>4,50</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2694</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>PHILIP MORRIS AZURE</t>
+          <t>PEDRONI MEDITERRANEO</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 5 pezzi</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>180,00</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>4,50</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2816</t>
+          <t>2583</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PHILIP MORRIS AZURE 100'S</t>
+          <t>PEDRONI MIX 01 PUERTO RICO 5 SIGARI</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 5 pezzi</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>132,00</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>3,30</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2602</t>
+          <t>2694</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>PHILIP MORRIS BLUE</t>
+          <t>PHILIP MORRIS AZURE</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -6755,12 +6755,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>2816</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>PHILIP MORRIS BLUE 100'S</t>
+          <t>PHILIP MORRIS AZURE 100'S</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -6782,7 +6782,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>2602</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -6792,29 +6792,29 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>cartoccio da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>PHILIP MORRIS FILTER KINGS</t>
+          <t>PHILIP MORRIS BLUE 100'S</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -6824,51 +6824,51 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>PHILIP MORRIS RED</t>
+          <t>PHILIP MORRIS BLUE</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>cartoccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>3219</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>PHILIP MORRIS RED 100'S</t>
+          <t>PHILIP MORRIS FILTER KINGS</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -6878,24 +6878,24 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>3337</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>PHILIP MORRIS SSL BEIGE</t>
+          <t>PHILIP MORRIS RED</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -6905,24 +6905,24 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>3221</t>
+          <t>3219</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>PHILIP MORRIS SSL BLUE</t>
+          <t>PHILIP MORRIS RED 100'S</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -6944,12 +6944,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2695</t>
+          <t>3337</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>PHILIP MORRIS WHITE</t>
+          <t>PHILIP MORRIS SSL BEIGE</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -6959,24 +6959,24 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2099</t>
+          <t>3221</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>PUEBLO CLASSIC</t>
+          <t>PHILIP MORRIS SSL BLUE</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -6986,24 +6986,24 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>275,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>5,50</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2652</t>
+          <t>2695</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ROTHMANS OF LONDON BLUE 20</t>
+          <t>PHILIP MORRIS WHITE</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -7013,24 +7013,24 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>240,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>4,80</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2879</t>
+          <t>2099</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ROTHMANS OF LONDON BLUE 100</t>
+          <t>PUEBLO CLASSIC</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -7040,24 +7040,24 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>275,00</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>5,50</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>3606</t>
+          <t>2652</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ROTHMANS ESSENCE BLUE KING SIZE</t>
+          <t>ROTHMANS OF LONDON BLUE 20</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -7067,24 +7067,24 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>240,00</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>4,80</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20412</t>
+          <t>2879</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ROTHMANS ESSENCE BLUE 100'S</t>
+          <t>ROTHMANS OF LONDON BLUE 100</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -7106,7 +7106,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -7116,29 +7116,29 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>cartoccio da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>240,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>4,80</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>3010</t>
+          <t>20412</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ROTHMANS OF LONDON S-SERIES BLUE</t>
+          <t>ROTHMANS ESSENCE BLUE 100'S</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -7160,120 +7160,120 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>3542</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ROTHMANS OF LONDON CIGARILLOS</t>
+          <t>ROTHMANS ESSENCE BLUE KING SIZE</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>da 10 pezzi</t>
+          <t>cartoccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>104,00</t>
+          <t>240,00</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>2,60</t>
+          <t>4,80</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>3647</t>
+          <t>3010</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ROTHMANS OF LONDON TOBACCO LEAF ROLLED</t>
+          <t>ROTHMANS OF LONDON S-SERIES BLUE</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>da 10 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>96,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>2,40</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2270</t>
+          <t>3542</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ROTHMANS OF LONDON D-SERIES</t>
+          <t>ROTHMANS OF LONDON CIGARILLOS</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 10 pezzi</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>104,00</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>2,60</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>3503</t>
+          <t>3647</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ROTHMANS OF LONDON SENSORA D- SERIES</t>
+          <t>ROTHMANS OF LONDON TOBACCO LEAF ROLLED</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 10 pezzi</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>96,00</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>2,40</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2860</t>
+          <t>2270</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ROTHMANS ESSENCE RED</t>
+          <t>ROTHMANS OF LONDON D-SERIES</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -7295,12 +7295,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2878</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ROTHMANS ESSENCE RED 100'S</t>
+          <t>ROTHMANS OF LONDON SENSORA D- SERIES</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -7322,12 +7322,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2654</t>
+          <t>2860</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ROTHMANS OF LONDON SILVER 20</t>
+          <t>ROTHMANS ESSENCE RED</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -7337,24 +7337,24 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>240,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>4,80</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>2878</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ROTHMANS OF LONDON SILVER 100</t>
+          <t>ROTHMANS ESSENCE RED 100'S</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -7376,12 +7376,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>3607</t>
+          <t>2654</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ROTHMANS ESSENCE SILVER KING SIZE</t>
+          <t>ROTHMANS OF LONDON SILVER 20</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -7391,24 +7391,24 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>240,00</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>4,80</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>3011</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ROTHMANS OF LONDON S-SERIES SILVER</t>
+          <t>ROTHMANS OF LONDON SILVER 100</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -7430,12 +7430,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>3948</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ROTHMANS OF LONDON SURROUND KING SIZE</t>
+          <t>ROTHMANS ESSENCE SILVER KING SIZE</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -7457,12 +7457,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>3012</t>
+          <t>3011</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ROTHMANS OF LONDON WHITE 20'S</t>
+          <t>ROTHMANS OF LONDON S-SERIES SILVER</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -7472,24 +7472,24 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>240,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>4,80</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>3662</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ROTHMANS OF LONDON WHITE 100</t>
+          <t>ROTHMANS OF LONDON SURROUND KING SIZE</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -7511,12 +7511,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20390</t>
+          <t>3012</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ROTHMANS OF LONDON S-SERIES WHITE</t>
+          <t>ROTHMANS OF LONDON WHITE 20'S</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -7526,105 +7526,105 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>240,00</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>4,80</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>3472</t>
+          <t>3662</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ANTICO SIGARO NOSTRANO DEL BRENTA 1763 IL FONDATORE</t>
+          <t>ROTHMANS OF LONDON WHITE 100</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>da 1 pezzo</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>1.300,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>6,50</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>3671</t>
+          <t>20390</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>SIGNATURE BLUE</t>
+          <t>ROTHMANS OF LONDON S-SERIES WHITE</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>da 10 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>96,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>2,40</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>3843</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>SIGNATURE FINOS FILTER G.</t>
+          <t>ANTICO SIGARO NOSTRANO DEL BRENTA 1763 IL FONDATORE</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>da 10 pezzi</t>
+          <t>da 1 pezzo</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>152,00</t>
+          <t>1.300,00</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>3,80</t>
+          <t>6,50</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>3786</t>
+          <t>3671</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>SIGNATURE FINOS INDOCHINE FILTER</t>
+          <t>SIGNATURE BLUE</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -7634,24 +7634,24 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>120,00</t>
+          <t>96,00</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,40</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>3787</t>
+          <t>3843</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>SIGNATURE FINOS PERSE FILTER</t>
+          <t>SIGNATURE FINOS FILTER G.</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -7661,24 +7661,24 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>120,00</t>
+          <t>152,00</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>3,80</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20463</t>
+          <t>3786</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>SIGNATURE RED</t>
+          <t>SIGNATURE FINOS INDOCHINE FILTER</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -7688,24 +7688,24 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>96,00</t>
+          <t>120,00</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>2,40</t>
+          <t>3,00</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>3981</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>SIGNATURE SILHOUETTE BEIGE</t>
+          <t>SIGNATURE FINOS PERSE FILTER</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -7715,24 +7715,24 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>156,00</t>
+          <t>120,00</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>3,90</t>
+          <t>3,00</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>3982</t>
+          <t>20463</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>SIGNATURE SILHOUETTE BLUE</t>
+          <t>SIGNATURE RED</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -7742,24 +7742,24 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>156,00</t>
+          <t>96,00</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>3,90</t>
+          <t>2,40</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>3670</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>SIGNATURE G</t>
+          <t>SIGNATURE SILHOUETTE BEIGE</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -7769,24 +7769,24 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>96,00</t>
+          <t>156,00</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>2,40</t>
+          <t>3,90</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>3946</t>
+          <t>3982</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>SIGNATURE P.</t>
+          <t>SIGNATURE SILHOUETTE BLUE</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -7796,78 +7796,78 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>96,00</t>
+          <t>156,00</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>2,40</t>
+          <t>3,90</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2552</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>#NO NAME WHITE</t>
+          <t>SIGNATURE G</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>da 30 grammi</t>
+          <t>da 10 pezzi</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>230,00</t>
+          <t>96,00</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>6,90</t>
+          <t>2,40</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>3585</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>#NO NAME PINK</t>
+          <t>SIGNATURE P.</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>da 30 grammi</t>
+          <t>da 10 pezzi</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>230,00</t>
+          <t>96,00</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>6,90</t>
+          <t>2,40</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>2552</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>#NO NAME VIRGINIA</t>
+          <t>#NO NAME WHITE</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -7889,12 +7889,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>3585</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>AMERICAN SPIRIT ORIGINAL BLUE 30G</t>
+          <t>#NO NAME PINK</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -7904,24 +7904,24 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>240,00</t>
+          <t>230,00</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>7,20</t>
+          <t>6,90</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>2554</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>AMERICAN SPIRIT ORIGINAL YELLOW 30G</t>
+          <t>#NO NAME VIRGINIA</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -7931,24 +7931,24 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>240,00</t>
+          <t>230,00</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>7,20</t>
+          <t>6,90</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>3814</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>BENSON &amp; HEDGES BLUE</t>
+          <t>AMERICAN SPIRIT ORIGINAL BLUE 30G</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -7958,24 +7958,24 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>216,67</t>
+          <t>240,00</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>6,50</t>
+          <t>7,20</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>3605</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>CAMEL BLONDE</t>
+          <t>AMERICAN SPIRIT ORIGINAL YELLOW 30G</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -7985,24 +7985,24 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>223,34</t>
+          <t>240,00</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>6,70</t>
+          <t>7,20</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>3458</t>
+          <t>3814</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>CAMEL BLUE</t>
+          <t>BENSON &amp; HEDGES BLUE</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -8012,24 +8012,24 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>233,33</t>
+          <t>216,67</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>6,50</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>3459</t>
+          <t>3605</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>CAMEL ESSENTIAL</t>
+          <t>CAMEL BLONDE</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -8039,24 +8039,24 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>233,33</t>
+          <t>223,34</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>6,70</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>3457</t>
+          <t>3458</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>CAMEL YELLOW</t>
+          <t>CAMEL BLUE</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -8078,12 +8078,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>3499</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>CHESTERFIELD ROLL YOUR OWN</t>
+          <t>CAMEL ESSENTIAL</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -8093,24 +8093,24 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>223,33</t>
+          <t>233,33</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>6,70</t>
+          <t>7,00</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>3815</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>CHESTERFIELD PREMIUM VIRGINIA</t>
+          <t>CAMEL YELLOW</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -8120,24 +8120,24 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>223,33</t>
+          <t>233,33</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>6,70</t>
+          <t>7,00</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>3497</t>
+          <t>3499</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>CHESTERFIELD ORIGINAL FINE CUT TOBACCO</t>
+          <t>CHESTERFIELD ROLL YOUR OWN</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -8147,24 +8147,24 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>216,67</t>
+          <t>223,33</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>6,50</t>
+          <t>6,70</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>3815</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>CHESTERFIELD BLUE</t>
+          <t>CHESTERFIELD PREMIUM VIRGINIA</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -8174,24 +8174,24 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>216,67</t>
+          <t>223,33</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>6,50</t>
+          <t>6,70</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>3519</t>
+          <t>3497</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>JPS BLUE 30 GR</t>
+          <t>CHESTERFIELD ORIGINAL FINE CUT TOBACCO</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -8213,12 +8213,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>3520</t>
+          <t>3498</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>JPS RED 30 GR</t>
+          <t>CHESTERFIELD BLUE</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -8240,12 +8240,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>3449</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>LUCKY STRIKE BLUE 30</t>
+          <t>JPS BLUE 30 GR</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -8255,24 +8255,24 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>233,33</t>
+          <t>216,67</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>6,50</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>3451</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>LUCKY STRIKE ORIGINAL BLUE 30</t>
+          <t>JPS RED 30 GR</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -8282,24 +8282,24 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>226,67</t>
+          <t>216,67</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>6,80</t>
+          <t>6,50</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>3450</t>
+          <t>3449</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>LUCKY STRIKE ORIGINAL RED 30</t>
+          <t>LUCKY STRIKE BLUE 30</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -8309,24 +8309,24 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>226,67</t>
+          <t>233,33</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>6,80</t>
+          <t>7,00</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>3448</t>
+          <t>3451</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>LUCKY STRIKE RED 30</t>
+          <t>LUCKY STRIKE ORIGINAL BLUE 30</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -8336,24 +8336,24 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>233,33</t>
+          <t>226,67</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>6,80</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>3495</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>MARLBORO GOLD</t>
+          <t>LUCKY STRIKE ORIGINAL RED 30</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -8363,24 +8363,24 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>233,33</t>
+          <t>226,67</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>6,80</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>3494</t>
+          <t>3448</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>MARLBORO</t>
+          <t>LUCKY STRIKE RED 30</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -8402,12 +8402,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>3704</t>
+          <t>3495</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>MARLBORO GOLD TOUCH ROLLING TOBACCO</t>
+          <t>MARLBORO GOLD</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -8417,24 +8417,24 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>216,67</t>
+          <t>233,33</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>6,50</t>
+          <t>7,00</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>3453</t>
+          <t>3494</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>MS TABACCO TRINCIATO 30</t>
+          <t>MARLBORO</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -8444,24 +8444,24 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>226,67</t>
+          <t>233,33</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>6,80</t>
+          <t>7,00</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>3456</t>
+          <t>3704</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>OLD HOLBORN BLONDE</t>
+          <t>MARLBORO GOLD TOUCH ROLLING TOBACCO</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -8471,24 +8471,24 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>233,33</t>
+          <t>216,67</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>6,50</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>3454</t>
+          <t>3453</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>OLD HOLBORN</t>
+          <t>MS TABACCO TRINCIATO 30</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -8498,24 +8498,24 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>233,33</t>
+          <t>226,67</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>6,80</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>3455</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>OLD HOLBORN YELLOW</t>
+          <t>OLD HOLBORN BLONDE</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -8537,39 +8537,39 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>3454</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>MAC BAREN MIXTURE</t>
+          <t>OLD HOLBORN</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>da 50 grammi</t>
+          <t>da 30 grammi</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>204,00</t>
+          <t>233,33</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>10,20</t>
+          <t>7,00</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2824</t>
+          <t>3455</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>PUEBLO BLUE</t>
+          <t>OLD HOLBORN YELLOW</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -8579,51 +8579,51 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>243,34</t>
+          <t>233,33</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>7,30</t>
+          <t>7,00</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>PUEBLO CLASSIC</t>
+          <t>MAC BAREN MIXTURE</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>da 30 grammi</t>
+          <t>da 50 grammi</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>243,34</t>
+          <t>204,00</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>7,30</t>
+          <t>10,20</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>20215</t>
+          <t>2824</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>PUEBLO PINK</t>
+          <t>PUEBLO BLUE</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -8645,12 +8645,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>3452</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>ROTHMANS OF LONDON VOLUME TOBACCO</t>
+          <t>PUEBLO CLASSIC</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -8660,24 +8660,24 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>223,33</t>
+          <t>243,34</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>6,70</t>
+          <t>7,30</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>3461</t>
+          <t>20215</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>WINSTON BLUE</t>
+          <t>PUEBLO PINK</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -8687,24 +8687,24 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>223,34</t>
+          <t>243,34</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>6,70</t>
+          <t>7,30</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>3460</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>WINSTON RED</t>
+          <t>ROTHMANS OF LONDON VOLUME TOBACCO</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>223,34</t>
+          <t>223,33</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -8726,12 +8726,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>3658</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>CAMEL BLUE VOLUME</t>
+          <t>WINSTON BLUE</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -8741,24 +8741,24 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>230,00</t>
+          <t>223,34</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>6,90</t>
+          <t>6,70</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>3482</t>
+          <t>3460</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>CHESTERFIELD BLUE VOLUME TOBACCO</t>
+          <t>WINSTON RED</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -8768,24 +8768,24 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>216,67</t>
+          <t>223,34</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>6,50</t>
+          <t>6,70</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>3491</t>
+          <t>3658</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>CHESTERFIELD ORIGINAL VOLUME TOBACCO</t>
+          <t>CAMEL BLUE VOLUME</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -8795,186 +8795,186 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>216,67</t>
+          <t>230,00</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>6,50</t>
+          <t>6,90</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>3758</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>WINSTON BLUE</t>
+          <t>CHESTERFIELD BLUE VOLUME TOBACCO</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>da 45 grammi</t>
+          <t>da 30 grammi</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>226,67</t>
+          <t>216,67</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>10,20</t>
+          <t>6,50</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>20146</t>
+          <t>3491</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TEREA Amber</t>
+          <t>CHESTERFIELD ORIGINAL VOLUME TOBACCO</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>da 20 pezzi</t>
+          <t>da 30 grammi</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>216,67</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>6,50</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>20147</t>
+          <t>3650</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TEREA BLUE</t>
+          <t>PUEBLO BLUE 70</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>da 20 pezzi</t>
+          <t>da 70 grammi</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>238,58</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>16,70</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>20148</t>
+          <t>2774</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TEREA Bronze</t>
+          <t>PUEBLO CLASSIC 70</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>da 20 pezzi</t>
+          <t>da 70 grammi</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>238,58</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>16,70</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>20149</t>
+          <t>3758</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>TEREA Mauve Wave</t>
+          <t>WINSTON BLUE</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>da 20 pezzi</t>
+          <t>da 45 grammi</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>226,67</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>10,20</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>20150</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>TEREA Russet</t>
+          <t>WINSTON RED VOLUME TOBACCO</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>da 20 pezzi</t>
+          <t>da 50 grammi</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>236,00</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>11,80</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>20151</t>
+          <t>20146</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>TEREA Sienna</t>
+          <t>TEREA Amber</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -8996,12 +8996,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>20152</t>
+          <t>20147</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>TEREA Silver</t>
+          <t>TEREA BLUE</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -9023,12 +9023,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>20153</t>
+          <t>20148</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TEREA Teak</t>
+          <t>TEREA Bronze</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -9050,12 +9050,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>20154</t>
+          <t>20149</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>TEREA Turquoise</t>
+          <t>TEREA Mauve Wave</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -9077,12 +9077,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>20155</t>
+          <t>20150</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>TEREA Yellow</t>
+          <t>TEREA Russet</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -9104,147 +9104,147 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>3342</t>
+          <t>20151</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>TOSCANELLO BIANCO RAFFINATO</t>
+          <t>TEREA Sienna</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>da 5 pezzi</t>
+          <t>da 20 pezzi</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>228,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>5,70</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>1701</t>
+          <t>20152</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>TOSCANELLO BIANCO</t>
+          <t>TEREA Silver</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>da 5 pezzi</t>
+          <t>da 20 pezzi</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>212,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>5,30</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>3375</t>
+          <t>20153</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>TOSCANELLO CASTANO RAFFINATO</t>
+          <t>TEREA Teak</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>da 5 pezzi</t>
+          <t>da 20 pezzi</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>228,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>5,70</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>20365</t>
+          <t>20154</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>TOSCANELLO XXL GIALLO RAFFINATO</t>
+          <t>TEREA Turquoise</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>da 4 pezzi</t>
+          <t>da 20 pezzi</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>265,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>5,30</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2223</t>
+          <t>20155</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>TOSCANELLO GIALLO</t>
+          <t>TEREA Yellow</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>da 5 pezzi</t>
+          <t>da 20 pezzi</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>212,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>5,30</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>3342</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>TOSCANELLO NERO</t>
+          <t>TOSCANELLO BIANCO RAFFINATO</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -9254,24 +9254,24 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>212,00</t>
+          <t>228,00</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>5,30</t>
+          <t>5,70</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>1701</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>TOSCANELLO</t>
+          <t>TOSCANELLO BIANCO</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -9281,24 +9281,24 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>160,00</t>
+          <t>212,00</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>5,30</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>3841</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TOSCANELLO RISERVA</t>
+          <t>TOSCANELLO CASTANO RAFFINATO</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -9308,34 +9308,34 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>180,00</t>
+          <t>228,00</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>4,50</t>
+          <t>5,70</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>1267</t>
+          <t>20365</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TOSCANELLO ROSSO</t>
+          <t>TOSCANELLO XXL GIALLO RAFFINATO</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>da 5 pezzi</t>
+          <t>da 4 pezzi</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>212,00</t>
+          <t>265,00</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -9347,12 +9347,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2803</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TOSCANELLO ROSSO RAFFINATO</t>
+          <t>TOSCANELLO GIALLO</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -9362,34 +9362,34 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>228,00</t>
+          <t>212,00</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>5,70</t>
+          <t>5,30</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>20366</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TOSCANELLO XXL ROSSO RAFFINATO</t>
+          <t>TOSCANELLO NERO</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>da 4 pezzi</t>
+          <t>da 5 pezzi</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>265,00</t>
+          <t>212,00</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -9401,12 +9401,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TOSCANELLO SPECIALE</t>
+          <t>TOSCANELLO</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -9416,132 +9416,132 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>228,00</t>
+          <t>160,00</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>5,70</t>
+          <t>4,00</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TOSCANO 1492 ANNO DOMINI</t>
+          <t>TOSCANELLO RISERVA</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>da 2 pezzi</t>
+          <t>da 5 pezzi</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>510,00</t>
+          <t>180,00</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>5,10</t>
+          <t>4,50</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>1267</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TOSCANO ANTICA RISERVA</t>
+          <t>TOSCANELLO ROSSO</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>da 2 pezzi</t>
+          <t>da 5 pezzi</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>560,00</t>
+          <t>212,00</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>5,60</t>
+          <t>5,30</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2253</t>
+          <t>2803</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TOSCANO ANTICA TRADIZIONE</t>
+          <t>TOSCANELLO ROSSO RAFFINATO</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>da 2 pezzi</t>
+          <t>da 5 pezzi</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>450,00</t>
+          <t>228,00</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>4,50</t>
+          <t>5,70</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>20366</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>ANTICO TOSCANO</t>
+          <t>TOSCANELLO XXL ROSSO RAFFINATO</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>da 5 pezzi</t>
+          <t>da 4 pezzi</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>392,00</t>
+          <t>265,00</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>9,80</t>
+          <t>5,30</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TOSCANO CLASSICO</t>
+          <t>TOSCANELLO SPECIALE</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -9551,105 +9551,105 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>276,00</t>
+          <t>228,00</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>6,90</t>
+          <t>5,70</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TOSCANO EXTRAVECCHIO</t>
+          <t>TOSCANO 1492 ANNO DOMINI</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>da 5 pezzi</t>
+          <t>da 2 pezzi</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>292,00</t>
+          <t>510,00</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>7,30</t>
+          <t>5,10</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>3914</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TOSCANO EXTRAVECCHIO N. 10 SIGARI</t>
+          <t>TOSCANO ANTICA RISERVA</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>da 10 pezzi</t>
+          <t>da 2 pezzi</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>292,00</t>
+          <t>560,00</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>14,60</t>
+          <t>5,60</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2253</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TOSCANO GARIBALDI</t>
+          <t>TOSCANO ANTICA TRADIZIONE</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>da 5 pezzi</t>
+          <t>da 2 pezzi</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>232,00</t>
+          <t>450,00</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>5,80</t>
+          <t>4,50</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>AMMEZZATI TOSCANO GARIBALDI</t>
+          <t>ANTICO TOSCANO</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -9659,24 +9659,24 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>180,00</t>
+          <t>392,00</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>4,50</t>
+          <t>9,80</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>20078</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TOSCANO OLTRARNO</t>
+          <t>TOSCANO CLASSICO</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -9686,78 +9686,78 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>288,00</t>
+          <t>276,00</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>7,20</t>
+          <t>6,90</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>3752</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>TOSCANO ORIGINALE ITALIA 1891</t>
+          <t>TOSCANO EXTRAVECCHIO</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>da 2 pezzi</t>
+          <t>da 5 pezzi</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>650,00</t>
+          <t>292,00</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>6,50</t>
+          <t>7,30</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>3875</t>
+          <t>3914</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>TOSCANO PICCOLO FERMENTATO</t>
+          <t>TOSCANO EXTRAVECCHIO N. 10 SIGARI</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>da 5 pezzi</t>
+          <t>da 10 pezzi</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>200,00</t>
+          <t>292,00</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>14,60</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>3874</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>TOSCANO PICCOLO RUSTICO</t>
+          <t>TOSCANO GARIBALDI</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -9767,24 +9767,24 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>200,00</t>
+          <t>232,00</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>5,80</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>3818</t>
+          <t>684</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>TOSCANO PUCCINI</t>
+          <t>AMMEZZATI TOSCANO GARIBALDI</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -9794,159 +9794,159 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>308,00</t>
+          <t>180,00</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>7,70</t>
+          <t>4,50</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>20078</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>VOGUE BLEUE</t>
+          <t>TOSCANO OLTRARNO</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 5 pezzi</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>288,00</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>7,20</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>VOGUE CLASSIQUE LONG BLEUE</t>
+          <t>TOSCANO ORIGINALE ITALIA 1891</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 2 pezzi</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>650,00</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>6,50</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>VOGUE LILAS</t>
+          <t>TOSCANO PICCOLO FERMENTATO</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 5 pezzi</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>200,00</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>WEST BLUE</t>
+          <t>TOSCANO PICCOLO RUSTICO</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 5 pezzi</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>240,00</t>
+          <t>200,00</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>4,80</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>3818</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>WEST BLUE 100S</t>
+          <t>TOSCANO PUCCINI</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>da 5 pezzi</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>245,00</t>
+          <t>308,00</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>4,90</t>
+          <t>7,70</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>600</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>WEST ORIGINAL</t>
+          <t>VOGUE BLEUE</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -9956,24 +9956,24 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>240,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>4,80</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>544</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>WEST ORIGINAL 100S</t>
+          <t>VOGUE CLASSIQUE LONG BLEUE</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -9983,24 +9983,24 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>245,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>4,90</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>WINSTON BLUE</t>
+          <t>VOGUE LILAS</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -10010,24 +10010,24 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>1784</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>WINSTON BLUE 100S</t>
+          <t>WEST BLUE</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -10037,24 +10037,24 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>240,00</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>4,80</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2065</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>WINSTON BLUE SUPER LINE</t>
+          <t>WEST BLUE 100S</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -10064,51 +10064,51 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>245,00</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>4,90</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>WINSTON BLUE</t>
+          <t>WEST ORIGINAL</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>cartoccio da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>240,00</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>4,80</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>3913</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>WINSTON CASTER 100s</t>
+          <t>WEST ORIGINAL 100S</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -10118,24 +10118,24 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>245,00</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>4,90</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>20041</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>WINSTON COMPACT</t>
+          <t>WINSTON BLUE</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -10157,12 +10157,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>20226</t>
+          <t>1784</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>WINSTON EXPAND</t>
+          <t>WINSTON BLUE 100S</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -10184,12 +10184,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>2065</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>WINSTON RED</t>
+          <t>WINSTON BLUE SUPER LINE</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -10199,29 +10199,29 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>1783</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>WINSTON RED 100S</t>
+          <t>WINSTON BLUE</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>cartoccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -10238,17 +10238,17 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>WINSTON RED</t>
+          <t>WINSTON CASTER 100s</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>cartoccio da 20 pezzi</t>
+          <t>astuccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -10265,12 +10265,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>20041</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>WINSTON SILVER</t>
+          <t>WINSTON COMPACT</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -10292,12 +10292,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2296</t>
+          <t>20226</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>WINSTON SILVER 100S</t>
+          <t>WINSTON EXPAND</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -10319,12 +10319,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2066</t>
+          <t>91</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>WINSTON SILVER SUPER LINE</t>
+          <t>WINSTON RED</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -10334,24 +10334,24 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>260,00</t>
+          <t>250,00</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>5,00</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>1248</t>
+          <t>1783</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>WINSTON WHITE</t>
+          <t>WINSTON RED 100S</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -10361,29 +10361,29 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>3467</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>WINSTON WHITE SUPER LINE</t>
+          <t>WINSTON RED</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>astuccio da 20 pezzi</t>
+          <t>cartoccio da 20 pezzi</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -10400,12 +10400,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2341</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>YESMOKE BLACK</t>
+          <t>WINSTON SILVER</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -10427,12 +10427,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2262</t>
+          <t>2296</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>YESMOKE BLUE</t>
+          <t>WINSTON SILVER 100S</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -10442,24 +10442,24 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2682</t>
+          <t>2066</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>YESMOKE SILVER</t>
+          <t>WINSTON SILVER SUPER LINE</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -10469,37 +10469,172 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>250,00</t>
+          <t>260,00</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
+          <t>1248</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>WINSTON WHITE</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>astuccio da 20 pezzi</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>250,00</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>5,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>3467</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>WINSTON WHITE SUPER LINE</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>astuccio da 20 pezzi</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>260,00</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2341</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>YESMOKE BLACK</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>astuccio da 20 pezzi</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>250,00</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>5,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2262</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>YESMOKE BLUE</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>astuccio da 20 pezzi</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>250,00</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>5,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2682</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>YESMOKE SILVER</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>astuccio da 20 pezzi</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>250,00</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>5,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
           <t>2072</t>
         </is>
       </c>
-      <c r="B373" t="inlineStr">
+      <c r="B378" t="inlineStr">
         <is>
           <t>YESMOKE WHITE RED</t>
         </is>
       </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>astuccio da 20 pezzi</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>astuccio da 20 pezzi</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
         <is>
           <t>250,00</t>
         </is>
       </c>
-      <c r="E373" t="inlineStr">
+      <c r="E378" t="inlineStr">
         <is>
           <t>5,00</t>
         </is>
